--- a/Excel-XLSX/UN-FGU.xlsx
+++ b/Excel-XLSX/UN-FGU.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>nzzWH0</t>
+    <t>vtz2SQ</t>
   </si>
   <si>
     <t>1989</t>
@@ -120,7 +120,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>null</t>
+    <t>-</t>
   </si>
   <si>
     <t>2</t>
@@ -690,8 +690,8 @@
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>33</v>
+      <c r="V2" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -758,8 +758,8 @@
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>33</v>
+      <c r="V3" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -826,8 +826,8 @@
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>33</v>
+      <c r="V4" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -894,8 +894,8 @@
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>33</v>
+      <c r="V5" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -962,8 +962,8 @@
       <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>33</v>
+      <c r="V6" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -1030,8 +1030,8 @@
       <c r="U7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>33</v>
+      <c r="V7" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-FGU.xlsx
+++ b/Excel-XLSX/UN-FGU.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>vtz2SQ</t>
+    <t>0OZyvH</t>
   </si>
   <si>
     <t>1989</t>
@@ -690,8 +690,8 @@
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>34</v>
+      <c r="V2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -758,8 +758,8 @@
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>34</v>
+      <c r="V3" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -826,8 +826,8 @@
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>34</v>
+      <c r="V4" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -894,8 +894,8 @@
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>34</v>
+      <c r="V5" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -962,8 +962,8 @@
       <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>34</v>
+      <c r="V6" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -1030,8 +1030,8 @@
       <c r="U7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>34</v>
+      <c r="V7" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-FGU.xlsx
+++ b/Excel-XLSX/UN-FGU.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>0OZyvH</t>
+    <t>Z7kVR3</t>
   </si>
   <si>
     <t>1989</t>
